--- a/01 - 0 to 1000.xlsx
+++ b/01 - 0 to 1000.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE7FDA7-2530-46C3-86A1-DBD8215FA193}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6ADDDFF-E0DF-4997-85C7-7E8EDF0FEC4C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="218">
   <si>
     <t>Companies</t>
   </si>
@@ -739,7 +739,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -809,7 +809,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1095,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,1062 +1129,1062 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5">
-        <v>19.09</v>
-      </c>
-      <c r="C2" s="6">
-        <v>62.19</v>
-      </c>
-      <c r="D2" s="6">
-        <v>289.77</v>
-      </c>
-      <c r="E2" s="6">
-        <v>8.07</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>7</v>
+        <v>214</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1611.99</v>
+      </c>
+      <c r="C2" s="9">
+        <v>-913.39</v>
+      </c>
+      <c r="D2" s="8">
+        <v>19301.03</v>
+      </c>
+      <c r="E2" s="9">
+        <v>984.9</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5">
-        <v>129.44</v>
+        <v>14</v>
+      </c>
+      <c r="B3" s="13">
+        <v>311.93</v>
       </c>
       <c r="C3" s="8">
-        <v>-2947.58</v>
-      </c>
-      <c r="D3" s="9">
-        <v>12.92</v>
-      </c>
-      <c r="E3" s="9">
-        <v>51.89</v>
+        <v>-2494.87</v>
+      </c>
+      <c r="D3" s="8">
+        <v>5803.53</v>
+      </c>
+      <c r="E3" s="14">
+        <v>99.53</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5">
-        <v>20.22</v>
-      </c>
-      <c r="C4" s="11">
-        <v>17.82</v>
-      </c>
-      <c r="D4" s="11">
-        <v>199.61</v>
-      </c>
-      <c r="E4" s="12">
-        <v>93.77</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>270.83</v>
+      </c>
+      <c r="C4" s="8">
+        <v>19.2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>9710.81</v>
+      </c>
+      <c r="E4" s="8">
+        <v>139.61000000000001</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="13">
-        <v>9.73</v>
-      </c>
-      <c r="C5" s="14">
-        <v>6.56</v>
-      </c>
-      <c r="D5" s="13">
-        <v>197.74</v>
-      </c>
-      <c r="E5" s="9">
-        <v>97.58</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>13</v>
+        <v>191</v>
+      </c>
+      <c r="B5" s="5">
+        <v>218.97</v>
+      </c>
+      <c r="C5" s="8">
+        <v>184.14</v>
+      </c>
+      <c r="D5" s="8">
+        <v>12984.88</v>
+      </c>
+      <c r="E5" s="8">
+        <v>863.87</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="13">
-        <v>311.93</v>
+        <v>171</v>
+      </c>
+      <c r="B6" s="5">
+        <v>202.06</v>
       </c>
       <c r="C6" s="8">
-        <v>-2494.87</v>
+        <v>539.22</v>
       </c>
       <c r="D6" s="8">
-        <v>5803.53</v>
-      </c>
-      <c r="E6" s="14">
-        <v>99.53</v>
+        <v>3440.14</v>
+      </c>
+      <c r="E6" s="8">
+        <v>745.85</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="B7" s="5">
-        <v>76.489999999999995</v>
-      </c>
-      <c r="C7" s="9">
-        <v>-4.41</v>
-      </c>
-      <c r="D7" s="8">
-        <v>3174.22</v>
-      </c>
-      <c r="E7" s="9">
-        <v>113.86</v>
+        <v>132.27000000000001</v>
+      </c>
+      <c r="C7" s="11">
+        <v>65.7</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1764.6</v>
+      </c>
+      <c r="E7" s="11">
+        <v>417.76</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="B8" s="13">
-        <v>111.69</v>
+        <v>130.51</v>
       </c>
       <c r="C8" s="9">
-        <v>87.36</v>
+        <v>-138.94</v>
       </c>
       <c r="D8" s="8">
-        <v>2151.35</v>
+        <v>2941.78</v>
       </c>
       <c r="E8" s="9">
-        <v>115.09</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>526.01</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5">
-        <v>270.83</v>
+        <v>129.44</v>
       </c>
       <c r="C9" s="8">
-        <v>19.2</v>
-      </c>
-      <c r="D9" s="8">
-        <v>9710.81</v>
-      </c>
-      <c r="E9" s="8">
-        <v>139.61000000000001</v>
+        <v>-2947.58</v>
+      </c>
+      <c r="D9" s="9">
+        <v>12.92</v>
+      </c>
+      <c r="E9" s="9">
+        <v>51.89</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="5">
-        <v>20.34</v>
-      </c>
-      <c r="C10" s="8">
-        <v>18.3</v>
-      </c>
-      <c r="D10" s="8">
-        <v>250.34</v>
-      </c>
-      <c r="E10" s="8">
-        <v>143.16</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>23</v>
+        <v>203</v>
+      </c>
+      <c r="B10" s="13">
+        <v>117.28</v>
+      </c>
+      <c r="C10" s="9">
+        <v>94.05</v>
+      </c>
+      <c r="D10" s="9">
+        <v>701.78</v>
+      </c>
+      <c r="E10" s="9">
+        <v>932.42</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c r="B11" s="13">
-        <v>14.9</v>
+        <v>113.88</v>
       </c>
       <c r="C11" s="9">
-        <v>15.97</v>
-      </c>
-      <c r="D11" s="9">
-        <v>435.99</v>
+        <v>234.51</v>
+      </c>
+      <c r="D11" s="8">
+        <v>6191.29</v>
       </c>
       <c r="E11" s="9">
-        <v>153.34</v>
+        <v>997.7</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>25</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="B12" s="13">
-        <v>50.95</v>
-      </c>
-      <c r="C12" s="8">
-        <v>15.61</v>
+        <v>112.76</v>
+      </c>
+      <c r="C12" s="9">
+        <v>117.54</v>
       </c>
       <c r="D12" s="8">
-        <v>1232.0999999999999</v>
-      </c>
-      <c r="E12" s="8">
-        <v>168.33</v>
+        <v>1613.52</v>
+      </c>
+      <c r="E12" s="9">
+        <v>806.48</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>27</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B13" s="13">
-        <v>27.27</v>
+        <v>111.69</v>
       </c>
       <c r="C13" s="9">
-        <v>30.53</v>
+        <v>87.36</v>
       </c>
       <c r="D13" s="8">
-        <v>1374.39</v>
+        <v>2151.35</v>
       </c>
       <c r="E13" s="9">
-        <v>172.05</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>29</v>
+        <v>115.09</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="B14" s="5">
-        <v>25.63</v>
-      </c>
-      <c r="C14" s="13">
-        <v>36.22</v>
-      </c>
-      <c r="D14" s="13">
-        <v>460.28</v>
+        <v>108.86</v>
+      </c>
+      <c r="C14" s="8">
+        <v>7.92</v>
+      </c>
+      <c r="D14" s="8">
+        <v>2279.87</v>
       </c>
       <c r="E14" s="8">
-        <v>199.98</v>
+        <v>765.62</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="5">
-        <v>22.95</v>
-      </c>
-      <c r="C15" s="9">
-        <v>35.1</v>
-      </c>
-      <c r="D15" s="9">
-        <v>437.41</v>
-      </c>
-      <c r="E15" s="9">
-        <v>209.33</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>33</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="18">
+        <v>106.37</v>
+      </c>
+      <c r="C15" s="24">
+        <v>132.05000000000001</v>
+      </c>
+      <c r="D15" s="24">
+        <v>890.56</v>
+      </c>
+      <c r="E15" s="24">
+        <v>786.19</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="5">
-        <v>26.61</v>
-      </c>
-      <c r="C16" s="8">
-        <v>39.85</v>
+        <v>123</v>
+      </c>
+      <c r="B16" s="13">
+        <v>97.57</v>
+      </c>
+      <c r="C16" s="9">
+        <v>214.85</v>
       </c>
       <c r="D16" s="8">
-        <v>487.9</v>
-      </c>
-      <c r="E16" s="8">
-        <v>221.4</v>
+        <v>1838.87</v>
+      </c>
+      <c r="E16" s="9">
+        <v>544.16</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="13">
-        <v>22.64</v>
-      </c>
-      <c r="C17" s="8">
-        <v>13.31</v>
-      </c>
-      <c r="D17" s="8">
-        <v>1428.9</v>
-      </c>
-      <c r="E17" s="5">
-        <v>223.76</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>37</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="19">
+        <v>96.64</v>
+      </c>
+      <c r="C17" s="20">
+        <v>181</v>
+      </c>
+      <c r="D17" s="20">
+        <v>13473.05</v>
+      </c>
+      <c r="E17" s="20">
+        <v>480.21</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="18">
-        <v>31.6</v>
-      </c>
-      <c r="C18" s="19">
-        <v>34.4</v>
-      </c>
-      <c r="D18" s="19">
-        <v>1331.8</v>
-      </c>
-      <c r="E18" s="20">
-        <v>232.8</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>39</v>
+      <c r="A18" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="13">
+        <v>96.45</v>
+      </c>
+      <c r="C18" s="9">
+        <v>-47.2</v>
+      </c>
+      <c r="D18" s="8">
+        <v>2519.31</v>
+      </c>
+      <c r="E18" s="9">
+        <v>679.87</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="B19" s="13">
-        <v>48.79</v>
+        <v>91.52</v>
       </c>
       <c r="C19" s="9">
-        <v>57.39</v>
-      </c>
-      <c r="D19" s="9">
-        <v>909.02</v>
+        <v>52.82</v>
+      </c>
+      <c r="D19" s="8">
+        <v>2170.79</v>
       </c>
       <c r="E19" s="9">
-        <v>237.55</v>
+        <v>555.41999999999996</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="B20" s="13">
-        <v>28.64</v>
-      </c>
-      <c r="C20" s="8">
-        <v>26.39</v>
+        <v>90.64</v>
+      </c>
+      <c r="C20" s="9">
+        <v>31.21</v>
       </c>
       <c r="D20" s="8">
-        <v>1207.45</v>
-      </c>
-      <c r="E20" s="8">
-        <v>241.77</v>
+        <v>1125.96</v>
+      </c>
+      <c r="E20" s="9">
+        <v>585.73</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="B21" s="13">
-        <v>13.96</v>
+        <v>90.06</v>
       </c>
       <c r="C21" s="9">
-        <v>12.3</v>
-      </c>
-      <c r="D21" s="9">
-        <v>315.57</v>
+        <v>102.35</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1243</v>
       </c>
       <c r="E21" s="9">
-        <v>255.14</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>45</v>
+        <v>790.85</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B22" s="5">
-        <v>15.42</v>
+        <v>87.69</v>
       </c>
       <c r="C22" s="8">
-        <v>18.010000000000002</v>
+        <v>122.56</v>
       </c>
       <c r="D22" s="8">
-        <v>140.52000000000001</v>
+        <v>5129.55</v>
       </c>
       <c r="E22" s="8">
-        <v>257.66000000000003</v>
+        <v>412.57</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="B23" s="5">
-        <v>30.67</v>
-      </c>
-      <c r="C23" s="8">
-        <v>33.21</v>
-      </c>
-      <c r="D23" s="8">
-        <v>374.37</v>
-      </c>
-      <c r="E23" s="8">
-        <v>260.36</v>
+        <v>85.28</v>
+      </c>
+      <c r="C23" s="6">
+        <v>81.459999999999994</v>
+      </c>
+      <c r="D23" s="6">
+        <v>678.13</v>
+      </c>
+      <c r="E23" s="6">
+        <v>568.58000000000004</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="18">
-        <v>39.770000000000003</v>
-      </c>
-      <c r="C24" s="20">
-        <v>71.63</v>
-      </c>
-      <c r="D24" s="20">
-        <v>533.03</v>
-      </c>
-      <c r="E24" s="18">
-        <v>269.58</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>51</v>
+      <c r="A24" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B24" s="5">
+        <v>84.26</v>
+      </c>
+      <c r="C24" s="8">
+        <v>46.06</v>
+      </c>
+      <c r="D24" s="8">
+        <v>589.91</v>
+      </c>
+      <c r="E24" s="8">
+        <v>883.23</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="19">
-        <v>21.16</v>
-      </c>
-      <c r="C25" s="20">
-        <v>47.24</v>
-      </c>
-      <c r="D25" s="20">
-        <v>594.70000000000005</v>
-      </c>
-      <c r="E25" s="20">
-        <v>271.67</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="13">
-        <v>14.91</v>
-      </c>
-      <c r="C26" s="9">
-        <v>30.26</v>
-      </c>
-      <c r="D26" s="9">
-        <v>171.43</v>
-      </c>
-      <c r="E26" s="9">
-        <v>276.61</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="13">
-        <v>23.34</v>
-      </c>
-      <c r="C27" s="8">
-        <v>23.12</v>
-      </c>
-      <c r="D27" s="8">
-        <v>169.06</v>
-      </c>
-      <c r="E27" s="8">
-        <v>308.3</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
+      <c r="A25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="5">
+        <v>76.489999999999995</v>
+      </c>
+      <c r="C25" s="9">
+        <v>-4.41</v>
+      </c>
+      <c r="D25" s="8">
+        <v>3174.22</v>
+      </c>
+      <c r="E25" s="9">
+        <v>113.86</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B26" s="18">
+        <v>74.66</v>
+      </c>
+      <c r="C26" s="20">
+        <v>118.08</v>
+      </c>
+      <c r="D26" s="20">
+        <v>669.64</v>
+      </c>
+      <c r="E26" s="20">
+        <v>831.25</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27" s="18">
+        <v>72.97</v>
+      </c>
+      <c r="C27" s="24">
+        <v>120.88</v>
+      </c>
+      <c r="D27" s="20">
+        <v>2283.4499999999998</v>
+      </c>
+      <c r="E27" s="24">
+        <v>882.79</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="5">
-        <v>47.26</v>
+        <v>169</v>
+      </c>
+      <c r="B28" s="13">
+        <v>69.83</v>
       </c>
       <c r="C28" s="8">
-        <v>65.17</v>
+        <v>96.65</v>
       </c>
       <c r="D28" s="8">
-        <v>455.92</v>
+        <v>801.39</v>
       </c>
       <c r="E28" s="8">
-        <v>321.64</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>59</v>
+        <v>727.36</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="5">
-        <v>35.96</v>
-      </c>
-      <c r="C29" s="8">
-        <v>33.25</v>
-      </c>
-      <c r="D29" s="8">
-        <v>298.83</v>
-      </c>
-      <c r="E29" s="8">
-        <v>321.67</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>61</v>
+      <c r="A29" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="19">
+        <v>67.38</v>
+      </c>
+      <c r="C29" s="19">
+        <v>86.25</v>
+      </c>
+      <c r="D29" s="19">
+        <v>2060.52</v>
+      </c>
+      <c r="E29" s="20">
+        <v>472.6</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="B30" s="13">
-        <v>14.56</v>
-      </c>
-      <c r="C30" s="8">
-        <v>25.3</v>
-      </c>
-      <c r="D30" s="8">
-        <v>136.34</v>
-      </c>
-      <c r="E30" s="8">
-        <v>325.02999999999997</v>
+        <v>63.75</v>
+      </c>
+      <c r="C30" s="9">
+        <v>83.96</v>
+      </c>
+      <c r="D30" s="9">
+        <v>794.9</v>
+      </c>
+      <c r="E30" s="9">
+        <v>770.75</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="5">
-        <v>48.95</v>
-      </c>
-      <c r="C31" s="6">
-        <v>64.11</v>
-      </c>
-      <c r="D31" s="6">
-        <v>1286.71</v>
-      </c>
-      <c r="E31" s="6">
-        <v>331.14</v>
+        <v>121</v>
+      </c>
+      <c r="B31" s="13">
+        <v>62.58</v>
+      </c>
+      <c r="C31" s="8">
+        <v>72.37</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1077.9100000000001</v>
+      </c>
+      <c r="E31" s="8">
+        <v>535.30999999999995</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="19">
-        <v>21.66</v>
-      </c>
-      <c r="C32" s="20">
-        <v>35.479999999999997</v>
-      </c>
-      <c r="D32" s="20">
-        <v>503.88</v>
-      </c>
-      <c r="E32" s="20">
-        <v>331.44</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>67</v>
+      <c r="A32" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32" s="13">
+        <v>62</v>
+      </c>
+      <c r="C32" s="9">
+        <v>74.739999999999995</v>
+      </c>
+      <c r="D32" s="9">
+        <v>459.64</v>
+      </c>
+      <c r="E32" s="9">
+        <v>889.42</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="13">
-        <v>30.73</v>
-      </c>
-      <c r="C33" s="9">
-        <v>21.1</v>
-      </c>
-      <c r="D33" s="9">
-        <v>323.14999999999998</v>
-      </c>
-      <c r="E33" s="9">
-        <v>333.5</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>69</v>
+        <v>161</v>
+      </c>
+      <c r="B33" s="5">
+        <v>61.93</v>
+      </c>
+      <c r="C33" s="8">
+        <v>48.79</v>
+      </c>
+      <c r="D33" s="8">
+        <v>949.77</v>
+      </c>
+      <c r="E33" s="8">
+        <v>683.94</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="B34" s="5">
-        <v>22.47</v>
-      </c>
-      <c r="C34" s="6">
-        <v>25.71</v>
-      </c>
-      <c r="D34" s="6">
-        <v>262.43</v>
-      </c>
-      <c r="E34" s="5">
-        <v>344.89</v>
+        <v>60.65</v>
+      </c>
+      <c r="C34" s="8">
+        <v>108.52</v>
+      </c>
+      <c r="D34" s="8">
+        <v>816.56</v>
+      </c>
+      <c r="E34" s="8">
+        <v>571.73</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="B35" s="13">
-        <v>31.18</v>
+        <v>59.62</v>
       </c>
       <c r="C35" s="8">
-        <v>38.44</v>
+        <v>57.41</v>
       </c>
       <c r="D35" s="8">
-        <v>563.65</v>
+        <v>487.72</v>
       </c>
       <c r="E35" s="8">
-        <v>350.18</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>73</v>
+        <v>676.4</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="5">
-        <v>34.36</v>
+        <v>212</v>
+      </c>
+      <c r="B36" s="13">
+        <v>58.42</v>
       </c>
       <c r="C36" s="8">
-        <v>47.5</v>
+        <v>101.52</v>
       </c>
       <c r="D36" s="8">
-        <v>467.55</v>
-      </c>
-      <c r="E36" s="8">
-        <v>356.85</v>
+        <v>993.59</v>
+      </c>
+      <c r="E36" s="13">
+        <v>958</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>75</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="13">
-        <v>20.02</v>
-      </c>
-      <c r="C37" s="9">
-        <v>41.83</v>
-      </c>
-      <c r="D37" s="9">
-        <v>289.02999999999997</v>
-      </c>
-      <c r="E37" s="9">
-        <v>369.92</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>77</v>
+      <c r="A37" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="18">
+        <v>58.2</v>
+      </c>
+      <c r="C37" s="20">
+        <v>156.06</v>
+      </c>
+      <c r="D37" s="20">
+        <v>1627.45</v>
+      </c>
+      <c r="E37" s="20">
+        <v>375.41</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="18">
-        <v>58.2</v>
-      </c>
-      <c r="C38" s="20">
-        <v>156.06</v>
-      </c>
-      <c r="D38" s="20">
-        <v>1627.45</v>
-      </c>
-      <c r="E38" s="20">
-        <v>375.41</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>79</v>
+      <c r="A38" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" s="5">
+        <v>58.14</v>
+      </c>
+      <c r="C38" s="5">
+        <v>153.03</v>
+      </c>
+      <c r="D38" s="5">
+        <v>694.79</v>
+      </c>
+      <c r="E38" s="8">
+        <v>785.36</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="B39" s="13">
-        <v>17.850000000000001</v>
+        <v>57.77</v>
       </c>
       <c r="C39" s="9">
-        <v>20.14</v>
+        <v>12.54</v>
       </c>
       <c r="D39" s="9">
-        <v>377.5</v>
+        <v>507.76</v>
       </c>
       <c r="E39" s="9">
-        <v>385.7</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>55</v>
+        <v>642.23</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="19">
-        <v>25.95</v>
-      </c>
-      <c r="C40" s="20">
-        <v>36.53</v>
-      </c>
-      <c r="D40" s="20">
-        <v>209.84</v>
-      </c>
-      <c r="E40" s="20">
-        <v>408.45</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>82</v>
+      <c r="A40" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B40" s="13">
+        <v>54.54</v>
+      </c>
+      <c r="C40" s="9">
+        <v>98.11</v>
+      </c>
+      <c r="D40" s="9">
+        <v>772.99</v>
+      </c>
+      <c r="E40" s="9">
+        <v>836.27</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="B41" s="5">
-        <v>87.69</v>
-      </c>
-      <c r="C41" s="8">
-        <v>122.56</v>
-      </c>
-      <c r="D41" s="8">
-        <v>5129.55</v>
-      </c>
-      <c r="E41" s="8">
-        <v>412.57</v>
+        <v>53.96</v>
+      </c>
+      <c r="C41" s="6">
+        <v>63.18</v>
+      </c>
+      <c r="D41" s="6">
+        <v>563.29</v>
+      </c>
+      <c r="E41" s="6">
+        <v>520.52</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="5">
-        <v>30.44</v>
-      </c>
-      <c r="C42" s="8">
-        <v>38.01</v>
-      </c>
-      <c r="D42" s="8">
-        <v>477.71</v>
-      </c>
-      <c r="E42" s="8">
-        <v>413.78</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="5">
-        <v>132.27000000000001</v>
-      </c>
-      <c r="C43" s="11">
-        <v>65.7</v>
-      </c>
-      <c r="D43" s="6">
-        <v>1764.6</v>
-      </c>
-      <c r="E43" s="11">
-        <v>417.76</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>88</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B42" s="18">
+        <v>53.87</v>
+      </c>
+      <c r="C42" s="20">
+        <v>81.349999999999994</v>
+      </c>
+      <c r="D42" s="20">
+        <v>1066.82</v>
+      </c>
+      <c r="E42" s="20">
+        <v>943.66</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B43" s="18">
+        <v>53.49</v>
+      </c>
+      <c r="C43" s="20">
+        <v>98.77</v>
+      </c>
+      <c r="D43" s="20">
+        <v>712.65</v>
+      </c>
+      <c r="E43" s="20">
+        <v>864.06</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B44" s="13">
-        <v>46.41</v>
+        <v>50.95</v>
       </c>
       <c r="C44" s="8">
-        <v>42.91</v>
+        <v>15.61</v>
       </c>
       <c r="D44" s="8">
-        <v>629.16</v>
-      </c>
-      <c r="E44" s="13">
-        <v>419.99</v>
+        <v>1232.0999999999999</v>
+      </c>
+      <c r="E44" s="8">
+        <v>168.33</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B45" s="5">
-        <v>38.31</v>
-      </c>
-      <c r="C45" s="8">
-        <v>-1.31</v>
-      </c>
-      <c r="D45" s="8">
-        <v>435.25</v>
-      </c>
-      <c r="E45" s="8">
-        <v>423.63</v>
+        <v>48.95</v>
+      </c>
+      <c r="C45" s="6">
+        <v>64.11</v>
+      </c>
+      <c r="D45" s="6">
+        <v>1286.71</v>
+      </c>
+      <c r="E45" s="6">
+        <v>331.14</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="B46" s="13">
-        <v>31.02</v>
-      </c>
-      <c r="C46" s="8">
-        <v>31.17</v>
-      </c>
-      <c r="D46" s="8">
-        <v>338.51</v>
-      </c>
-      <c r="E46" s="8">
-        <v>443.9</v>
+        <v>48.79</v>
+      </c>
+      <c r="C46" s="9">
+        <v>57.39</v>
+      </c>
+      <c r="D46" s="9">
+        <v>909.02</v>
+      </c>
+      <c r="E46" s="9">
+        <v>237.55</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" s="18">
-        <v>36.36</v>
-      </c>
-      <c r="C47" s="24">
-        <v>43.83</v>
-      </c>
-      <c r="D47" s="24">
-        <v>462.87</v>
-      </c>
-      <c r="E47" s="24">
-        <v>459.06</v>
-      </c>
-      <c r="F47" s="25" t="s">
-        <v>96</v>
+      <c r="A47" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="5">
+        <v>47.26</v>
+      </c>
+      <c r="C47" s="8">
+        <v>65.17</v>
+      </c>
+      <c r="D47" s="8">
+        <v>455.92</v>
+      </c>
+      <c r="E47" s="8">
+        <v>321.64</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" s="19">
-        <v>67.38</v>
-      </c>
-      <c r="C48" s="19">
-        <v>86.25</v>
-      </c>
-      <c r="D48" s="19">
-        <v>2060.52</v>
-      </c>
-      <c r="E48" s="20">
-        <v>472.6</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>98</v>
+      <c r="A48" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="13">
+        <v>46.41</v>
+      </c>
+      <c r="C48" s="8">
+        <v>42.91</v>
+      </c>
+      <c r="D48" s="8">
+        <v>629.16</v>
+      </c>
+      <c r="E48" s="13">
+        <v>419.99</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" s="13">
-        <v>24.54</v>
-      </c>
-      <c r="C49" s="9">
-        <v>-55.28</v>
-      </c>
-      <c r="D49" s="9">
-        <v>803.65</v>
-      </c>
-      <c r="E49" s="9">
-        <v>475.5</v>
+        <v>155</v>
+      </c>
+      <c r="B49" s="5">
+        <v>45.39</v>
+      </c>
+      <c r="C49" s="8">
+        <v>-12.47</v>
+      </c>
+      <c r="D49" s="8">
+        <v>875.72</v>
+      </c>
+      <c r="E49" s="8">
+        <v>666.5</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" s="19">
-        <v>96.64</v>
-      </c>
-      <c r="C50" s="20">
-        <v>181</v>
-      </c>
-      <c r="D50" s="20">
-        <v>13473.05</v>
-      </c>
-      <c r="E50" s="20">
-        <v>480.21</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>102</v>
+      <c r="A50" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B50" s="13">
+        <v>45.08</v>
+      </c>
+      <c r="C50" s="8">
+        <v>54.15</v>
+      </c>
+      <c r="D50" s="8">
+        <v>517.1</v>
+      </c>
+      <c r="E50" s="8">
+        <v>920.13</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="B51" s="13">
-        <v>32.909999999999997</v>
-      </c>
-      <c r="C51" s="9">
-        <v>29.24</v>
-      </c>
-      <c r="D51" s="9">
-        <v>502.8</v>
-      </c>
-      <c r="E51" s="9">
-        <v>488.98</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>104</v>
+        <v>44.14</v>
+      </c>
+      <c r="C51" s="8">
+        <v>87.86</v>
+      </c>
+      <c r="D51" s="8">
+        <v>438.27</v>
+      </c>
+      <c r="E51" s="13">
+        <v>569.44000000000005</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B52" s="19">
-        <v>15.54</v>
-      </c>
-      <c r="C52" s="24">
-        <v>30.48</v>
-      </c>
-      <c r="D52" s="24">
-        <v>210.44</v>
-      </c>
-      <c r="E52" s="24">
-        <v>501.47</v>
-      </c>
-      <c r="F52" s="21" t="s">
-        <v>106</v>
+      <c r="A52" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" s="13">
+        <v>43</v>
+      </c>
+      <c r="C52" s="9">
+        <v>82.63</v>
+      </c>
+      <c r="D52" s="9">
+        <v>366.8</v>
+      </c>
+      <c r="E52" s="9">
+        <v>626.74</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B53" s="13">
-        <v>32.17</v>
-      </c>
-      <c r="C53" s="8">
-        <v>56.48</v>
-      </c>
-      <c r="D53" s="8">
-        <v>384.89</v>
-      </c>
-      <c r="E53" s="5">
-        <v>505.6</v>
+        <v>41.86</v>
+      </c>
+      <c r="C53" s="9">
+        <v>39.26</v>
+      </c>
+      <c r="D53" s="9">
+        <v>326.02999999999997</v>
+      </c>
+      <c r="E53" s="9">
+        <v>510.14</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B54" s="13">
-        <v>41.86</v>
+        <v>142</v>
+      </c>
+      <c r="B54" s="5">
+        <v>41.17</v>
       </c>
       <c r="C54" s="9">
-        <v>39.26</v>
+        <v>60.8</v>
       </c>
       <c r="D54" s="9">
-        <v>326.02999999999997</v>
+        <v>457.94</v>
       </c>
       <c r="E54" s="9">
-        <v>510.14</v>
+        <v>616.72</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2207,1086 +2208,1089 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B56" s="13">
-        <v>21.72</v>
-      </c>
-      <c r="C56" s="8">
-        <v>30.08</v>
-      </c>
-      <c r="D56" s="8">
-        <v>1128.05</v>
-      </c>
-      <c r="E56" s="8">
-        <v>519.15</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>114</v>
+      <c r="A56" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="18">
+        <v>39.770000000000003</v>
+      </c>
+      <c r="C56" s="20">
+        <v>71.63</v>
+      </c>
+      <c r="D56" s="20">
+        <v>533.03</v>
+      </c>
+      <c r="E56" s="18">
+        <v>269.58</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B57" s="5">
-        <v>53.96</v>
-      </c>
-      <c r="C57" s="6">
-        <v>63.18</v>
-      </c>
-      <c r="D57" s="6">
-        <v>563.29</v>
-      </c>
-      <c r="E57" s="6">
-        <v>520.52</v>
+        <v>38.31</v>
+      </c>
+      <c r="C57" s="8">
+        <v>-1.31</v>
+      </c>
+      <c r="D57" s="8">
+        <v>435.25</v>
+      </c>
+      <c r="E57" s="8">
+        <v>423.63</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B58" s="13">
-        <v>20.63</v>
+        <v>206</v>
+      </c>
+      <c r="B58" s="5">
+        <v>38.21</v>
       </c>
       <c r="C58" s="8">
-        <v>31.43</v>
+        <v>75.91</v>
       </c>
       <c r="D58" s="8">
-        <v>430.72</v>
+        <v>168.21</v>
       </c>
       <c r="E58" s="8">
-        <v>522</v>
+        <v>944.6</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>118</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="B59" s="13">
-        <v>130.51</v>
-      </c>
-      <c r="C59" s="9">
-        <v>-138.94</v>
+        <v>37.64</v>
+      </c>
+      <c r="C59" s="8">
+        <v>54.49</v>
       </c>
       <c r="D59" s="8">
-        <v>2941.78</v>
-      </c>
-      <c r="E59" s="9">
-        <v>526.01</v>
+        <v>1504.41</v>
+      </c>
+      <c r="E59" s="8">
+        <v>638.09</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B60" s="13">
-        <v>62.58</v>
-      </c>
-      <c r="C60" s="8">
-        <v>72.37</v>
-      </c>
-      <c r="D60" s="8">
-        <v>1077.9100000000001</v>
-      </c>
-      <c r="E60" s="8">
-        <v>535.30999999999995</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>122</v>
+      <c r="A60" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" s="18">
+        <v>36.36</v>
+      </c>
+      <c r="C60" s="24">
+        <v>43.83</v>
+      </c>
+      <c r="D60" s="24">
+        <v>462.87</v>
+      </c>
+      <c r="E60" s="24">
+        <v>459.06</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" s="13">
-        <v>97.57</v>
-      </c>
-      <c r="C61" s="9">
-        <v>214.85</v>
+        <v>60</v>
+      </c>
+      <c r="B61" s="5">
+        <v>35.96</v>
+      </c>
+      <c r="C61" s="8">
+        <v>33.25</v>
       </c>
       <c r="D61" s="8">
-        <v>1838.87</v>
-      </c>
-      <c r="E61" s="9">
-        <v>544.16</v>
+        <v>298.83</v>
+      </c>
+      <c r="E61" s="8">
+        <v>321.67</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B62" s="13">
-        <v>91.52</v>
-      </c>
-      <c r="C62" s="9">
-        <v>52.82</v>
+        <v>208</v>
+      </c>
+      <c r="B62" s="5">
+        <v>35.76</v>
+      </c>
+      <c r="C62" s="8">
+        <v>39.51</v>
       </c>
       <c r="D62" s="8">
-        <v>2170.79</v>
-      </c>
-      <c r="E62" s="9">
-        <v>555.41999999999996</v>
+        <v>937.47</v>
+      </c>
+      <c r="E62" s="8">
+        <v>950.79</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>126</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B63" s="13">
-        <v>33.24</v>
+        <v>74</v>
+      </c>
+      <c r="B63" s="5">
+        <v>34.36</v>
       </c>
       <c r="C63" s="8">
-        <v>61.95</v>
+        <v>47.5</v>
       </c>
       <c r="D63" s="8">
-        <v>514.73</v>
+        <v>467.55</v>
       </c>
       <c r="E63" s="8">
-        <v>555.99</v>
+        <v>356.85</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B64" s="5">
-        <v>85.28</v>
-      </c>
-      <c r="C64" s="6">
-        <v>81.459999999999994</v>
-      </c>
-      <c r="D64" s="6">
-        <v>678.13</v>
-      </c>
-      <c r="E64" s="6">
-        <v>568.58000000000004</v>
+        <v>210</v>
+      </c>
+      <c r="B64" s="13">
+        <v>33.56</v>
+      </c>
+      <c r="C64" s="9">
+        <v>37.94</v>
+      </c>
+      <c r="D64" s="9">
+        <v>324.52999999999997</v>
+      </c>
+      <c r="E64" s="9">
+        <v>953.2</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B65" s="13">
-        <v>44.14</v>
+        <v>33.24</v>
       </c>
       <c r="C65" s="8">
-        <v>87.86</v>
+        <v>61.95</v>
       </c>
       <c r="D65" s="8">
-        <v>438.27</v>
-      </c>
-      <c r="E65" s="13">
-        <v>569.44000000000005</v>
+        <v>514.73</v>
+      </c>
+      <c r="E65" s="8">
+        <v>555.99</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B66" s="5">
-        <v>28.91</v>
+        <v>163</v>
+      </c>
+      <c r="B66" s="13">
+        <v>32.99</v>
       </c>
       <c r="C66" s="8">
-        <v>29.33</v>
+        <v>44.86</v>
       </c>
       <c r="D66" s="8">
-        <v>408.87</v>
+        <v>370.45</v>
       </c>
       <c r="E66" s="8">
-        <v>570.73</v>
+        <v>696.53</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B67" s="5">
-        <v>60.65</v>
-      </c>
-      <c r="C67" s="8">
-        <v>108.52</v>
-      </c>
-      <c r="D67" s="8">
-        <v>816.56</v>
-      </c>
-      <c r="E67" s="8">
-        <v>571.73</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>84</v>
+        <v>103</v>
+      </c>
+      <c r="B67" s="13">
+        <v>32.909999999999997</v>
+      </c>
+      <c r="C67" s="9">
+        <v>29.24</v>
+      </c>
+      <c r="D67" s="9">
+        <v>502.8</v>
+      </c>
+      <c r="E67" s="9">
+        <v>488.98</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B68" s="13">
-        <v>90.64</v>
-      </c>
-      <c r="C68" s="9">
-        <v>31.21</v>
+        <v>32.17</v>
+      </c>
+      <c r="C68" s="8">
+        <v>56.48</v>
       </c>
       <c r="D68" s="8">
-        <v>1125.96</v>
-      </c>
-      <c r="E68" s="9">
-        <v>585.73</v>
+        <v>384.89</v>
+      </c>
+      <c r="E68" s="5">
+        <v>505.6</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B69" s="5">
-        <v>27.98</v>
-      </c>
-      <c r="C69" s="8">
-        <v>49.88</v>
-      </c>
-      <c r="D69" s="8">
-        <v>565.32000000000005</v>
-      </c>
-      <c r="E69" s="8">
-        <v>594.66</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>139</v>
+      <c r="A69" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="18">
+        <v>31.6</v>
+      </c>
+      <c r="C69" s="19">
+        <v>34.4</v>
+      </c>
+      <c r="D69" s="19">
+        <v>1331.8</v>
+      </c>
+      <c r="E69" s="20">
+        <v>232.8</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B70" s="5">
-        <v>21.56</v>
+        <v>72</v>
+      </c>
+      <c r="B70" s="13">
+        <v>31.18</v>
       </c>
       <c r="C70" s="8">
-        <v>7.31</v>
+        <v>38.44</v>
       </c>
       <c r="D70" s="8">
-        <v>534.07000000000005</v>
+        <v>563.65</v>
       </c>
       <c r="E70" s="8">
-        <v>616.34</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>141</v>
+        <v>350.18</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="B71" s="5">
-        <v>41.17</v>
-      </c>
-      <c r="C71" s="9">
-        <v>60.8</v>
-      </c>
-      <c r="D71" s="9">
-        <v>457.94</v>
-      </c>
-      <c r="E71" s="9">
-        <v>616.72</v>
+        <v>31.08</v>
+      </c>
+      <c r="C71" s="8">
+        <v>59.51</v>
+      </c>
+      <c r="D71" s="8">
+        <v>345.02</v>
+      </c>
+      <c r="E71" s="8">
+        <v>711.44</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="B72" s="13">
-        <v>43</v>
-      </c>
-      <c r="C72" s="9">
-        <v>82.63</v>
-      </c>
-      <c r="D72" s="9">
-        <v>366.8</v>
-      </c>
-      <c r="E72" s="9">
-        <v>626.74</v>
+        <v>31.02</v>
+      </c>
+      <c r="C72" s="8">
+        <v>31.17</v>
+      </c>
+      <c r="D72" s="8">
+        <v>338.51</v>
+      </c>
+      <c r="E72" s="8">
+        <v>443.9</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="B73" s="13">
-        <v>37.64</v>
-      </c>
-      <c r="C73" s="8">
-        <v>54.49</v>
-      </c>
-      <c r="D73" s="8">
-        <v>1504.41</v>
-      </c>
-      <c r="E73" s="8">
-        <v>638.09</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>146</v>
+        <v>30.73</v>
+      </c>
+      <c r="C73" s="9">
+        <v>21.1</v>
+      </c>
+      <c r="D73" s="9">
+        <v>323.14999999999998</v>
+      </c>
+      <c r="E73" s="9">
+        <v>333.5</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B74" s="13">
-        <v>57.77</v>
-      </c>
-      <c r="C74" s="9">
-        <v>12.54</v>
-      </c>
-      <c r="D74" s="9">
-        <v>507.76</v>
-      </c>
-      <c r="E74" s="9">
-        <v>642.23</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>148</v>
+        <v>48</v>
+      </c>
+      <c r="B74" s="5">
+        <v>30.67</v>
+      </c>
+      <c r="C74" s="8">
+        <v>33.21</v>
+      </c>
+      <c r="D74" s="8">
+        <v>374.37</v>
+      </c>
+      <c r="E74" s="8">
+        <v>260.36</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B75" s="13">
-        <v>19.3</v>
+        <v>85</v>
+      </c>
+      <c r="B75" s="5">
+        <v>30.44</v>
       </c>
       <c r="C75" s="8">
-        <v>33.35</v>
+        <v>38.01</v>
       </c>
       <c r="D75" s="8">
-        <v>302.08</v>
+        <v>477.71</v>
       </c>
       <c r="E75" s="8">
-        <v>650.16999999999996</v>
+        <v>413.78</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B76" s="13">
-        <v>17.63</v>
-      </c>
-      <c r="C76" s="9">
-        <v>24.37</v>
-      </c>
-      <c r="D76" s="9">
-        <v>279.64999999999998</v>
-      </c>
-      <c r="E76" s="9">
-        <v>660.95</v>
+        <v>133</v>
+      </c>
+      <c r="B76" s="5">
+        <v>28.91</v>
+      </c>
+      <c r="C76" s="8">
+        <v>29.33</v>
+      </c>
+      <c r="D76" s="8">
+        <v>408.87</v>
+      </c>
+      <c r="E76" s="8">
+        <v>570.73</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="B77" s="13">
-        <v>28.06</v>
+        <v>28.64</v>
       </c>
       <c r="C77" s="8">
-        <v>50.19</v>
+        <v>26.39</v>
       </c>
       <c r="D77" s="8">
-        <v>564.37</v>
+        <v>1207.45</v>
       </c>
       <c r="E77" s="8">
-        <v>663.25</v>
-      </c>
-      <c r="F77" s="26" t="s">
-        <v>154</v>
+        <v>241.77</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B78" s="5">
-        <v>45.39</v>
+        <v>153</v>
+      </c>
+      <c r="B78" s="13">
+        <v>28.06</v>
       </c>
       <c r="C78" s="8">
-        <v>-12.47</v>
+        <v>50.19</v>
       </c>
       <c r="D78" s="8">
-        <v>875.72</v>
+        <v>564.37</v>
       </c>
       <c r="E78" s="8">
-        <v>666.5</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>156</v>
+        <v>663.25</v>
+      </c>
+      <c r="F78" s="26" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B79" s="13">
-        <v>59.62</v>
+        <v>138</v>
+      </c>
+      <c r="B79" s="5">
+        <v>27.98</v>
       </c>
       <c r="C79" s="8">
-        <v>57.41</v>
+        <v>49.88</v>
       </c>
       <c r="D79" s="8">
-        <v>487.72</v>
+        <v>565.32000000000005</v>
       </c>
       <c r="E79" s="8">
-        <v>676.4</v>
+        <v>594.66</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="B80" s="13">
-        <v>96.45</v>
+        <v>27.27</v>
       </c>
       <c r="C80" s="9">
-        <v>-47.2</v>
+        <v>30.53</v>
       </c>
       <c r="D80" s="8">
-        <v>2519.31</v>
+        <v>1374.39</v>
       </c>
       <c r="E80" s="9">
-        <v>679.87</v>
+        <v>172.05</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>160</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="B81" s="5">
-        <v>61.93</v>
+        <v>26.61</v>
       </c>
       <c r="C81" s="8">
-        <v>48.79</v>
+        <v>39.85</v>
       </c>
       <c r="D81" s="8">
-        <v>949.77</v>
+        <v>487.9</v>
       </c>
       <c r="E81" s="8">
-        <v>683.94</v>
+        <v>221.4</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B82" s="13">
-        <v>32.99</v>
-      </c>
-      <c r="C82" s="8">
-        <v>44.86</v>
-      </c>
-      <c r="D82" s="8">
-        <v>370.45</v>
-      </c>
-      <c r="E82" s="8">
-        <v>696.53</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>164</v>
+      <c r="A82" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="19">
+        <v>25.95</v>
+      </c>
+      <c r="C82" s="20">
+        <v>36.53</v>
+      </c>
+      <c r="D82" s="20">
+        <v>209.84</v>
+      </c>
+      <c r="E82" s="20">
+        <v>408.45</v>
+      </c>
+      <c r="F82" s="21" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="B83" s="5">
-        <v>31.08</v>
-      </c>
-      <c r="C83" s="8">
-        <v>59.51</v>
-      </c>
-      <c r="D83" s="8">
-        <v>345.02</v>
+        <v>25.63</v>
+      </c>
+      <c r="C83" s="13">
+        <v>36.22</v>
+      </c>
+      <c r="D83" s="13">
+        <v>460.28</v>
       </c>
       <c r="E83" s="8">
-        <v>711.44</v>
+        <v>199.98</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>166</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="B84" s="13">
-        <v>22.13</v>
-      </c>
-      <c r="C84" s="8">
-        <v>24.1</v>
-      </c>
-      <c r="D84" s="8">
-        <v>279.5</v>
-      </c>
-      <c r="E84" s="8">
-        <v>718.72</v>
+        <v>24.54</v>
+      </c>
+      <c r="C84" s="9">
+        <v>-55.28</v>
+      </c>
+      <c r="D84" s="9">
+        <v>803.65</v>
+      </c>
+      <c r="E84" s="9">
+        <v>475.5</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>168</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="B85" s="13">
-        <v>69.83</v>
+        <v>23.34</v>
       </c>
       <c r="C85" s="8">
-        <v>96.65</v>
+        <v>23.12</v>
       </c>
       <c r="D85" s="8">
-        <v>801.39</v>
+        <v>169.06</v>
       </c>
       <c r="E85" s="8">
-        <v>727.36</v>
-      </c>
-      <c r="F85" s="10" t="s">
-        <v>170</v>
+        <v>308.3</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>171</v>
+        <v>32</v>
       </c>
       <c r="B86" s="5">
-        <v>202.06</v>
-      </c>
-      <c r="C86" s="8">
-        <v>539.22</v>
-      </c>
-      <c r="D86" s="8">
-        <v>3440.14</v>
-      </c>
-      <c r="E86" s="8">
-        <v>745.85</v>
-      </c>
-      <c r="F86" s="10" t="s">
-        <v>172</v>
+        <v>22.95</v>
+      </c>
+      <c r="C86" s="9">
+        <v>35.1</v>
+      </c>
+      <c r="D86" s="9">
+        <v>437.41</v>
+      </c>
+      <c r="E86" s="9">
+        <v>209.33</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="B87" s="13">
-        <v>21.11</v>
-      </c>
-      <c r="C87" s="9">
-        <v>61.7</v>
-      </c>
-      <c r="D87" s="9">
-        <v>580.75</v>
-      </c>
-      <c r="E87" s="9">
-        <v>761.43</v>
+        <v>22.64</v>
+      </c>
+      <c r="C87" s="8">
+        <v>13.31</v>
+      </c>
+      <c r="D87" s="8">
+        <v>1428.9</v>
+      </c>
+      <c r="E87" s="5">
+        <v>223.76</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>174</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="B88" s="5">
-        <v>108.86</v>
-      </c>
-      <c r="C88" s="8">
-        <v>7.92</v>
-      </c>
-      <c r="D88" s="8">
-        <v>2279.87</v>
-      </c>
-      <c r="E88" s="8">
-        <v>765.62</v>
+        <v>22.47</v>
+      </c>
+      <c r="C88" s="6">
+        <v>25.71</v>
+      </c>
+      <c r="D88" s="6">
+        <v>262.43</v>
+      </c>
+      <c r="E88" s="5">
+        <v>344.89</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>176</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B89" s="13">
-        <v>63.75</v>
-      </c>
-      <c r="C89" s="9">
-        <v>83.96</v>
-      </c>
-      <c r="D89" s="9">
-        <v>794.9</v>
-      </c>
-      <c r="E89" s="9">
-        <v>770.75</v>
+        <v>22.13</v>
+      </c>
+      <c r="C89" s="8">
+        <v>24.1</v>
+      </c>
+      <c r="D89" s="8">
+        <v>279.5</v>
+      </c>
+      <c r="E89" s="8">
+        <v>718.72</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B90" s="5">
-        <v>58.14</v>
-      </c>
-      <c r="C90" s="5">
-        <v>153.03</v>
-      </c>
-      <c r="D90" s="5">
-        <v>694.79</v>
+        <v>113</v>
+      </c>
+      <c r="B90" s="13">
+        <v>21.72</v>
+      </c>
+      <c r="C90" s="8">
+        <v>30.08</v>
+      </c>
+      <c r="D90" s="8">
+        <v>1128.05</v>
       </c>
       <c r="E90" s="8">
-        <v>785.36</v>
+        <v>519.15</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B91" s="13">
-        <v>106.37</v>
-      </c>
-      <c r="C91" s="9">
-        <v>132.05000000000001</v>
-      </c>
-      <c r="D91" s="9">
-        <v>890.56</v>
-      </c>
-      <c r="E91" s="9">
-        <v>786.19</v>
-      </c>
-      <c r="F91" s="10" t="s">
-        <v>182</v>
+      <c r="A91" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B91" s="19">
+        <v>21.66</v>
+      </c>
+      <c r="C91" s="20">
+        <v>35.479999999999997</v>
+      </c>
+      <c r="D91" s="20">
+        <v>503.88</v>
+      </c>
+      <c r="E91" s="20">
+        <v>331.44</v>
+      </c>
+      <c r="F91" s="21" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B92" s="13">
-        <v>90.06</v>
-      </c>
-      <c r="C92" s="9">
-        <v>102.35</v>
+        <v>140</v>
+      </c>
+      <c r="B92" s="5">
+        <v>21.56</v>
+      </c>
+      <c r="C92" s="8">
+        <v>7.31</v>
       </c>
       <c r="D92" s="8">
-        <v>1243</v>
-      </c>
-      <c r="E92" s="9">
-        <v>790.85</v>
+        <v>534.07000000000005</v>
+      </c>
+      <c r="E92" s="8">
+        <v>616.34</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B93" s="13">
-        <v>112.76</v>
-      </c>
-      <c r="C93" s="9">
-        <v>117.54</v>
-      </c>
-      <c r="D93" s="8">
-        <v>1613.52</v>
-      </c>
-      <c r="E93" s="9">
-        <v>806.48</v>
-      </c>
-      <c r="F93" s="10" t="s">
-        <v>186</v>
+      <c r="A93" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B93" s="19">
+        <v>21.16</v>
+      </c>
+      <c r="C93" s="20">
+        <v>47.24</v>
+      </c>
+      <c r="D93" s="20">
+        <v>594.70000000000005</v>
+      </c>
+      <c r="E93" s="20">
+        <v>271.67</v>
+      </c>
+      <c r="F93" s="21" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B94" s="13">
-        <v>74.66</v>
-      </c>
-      <c r="C94" s="8">
-        <v>118.08</v>
-      </c>
-      <c r="D94" s="8">
-        <v>669.64</v>
-      </c>
-      <c r="E94" s="8">
-        <v>831.25</v>
+        <v>21.11</v>
+      </c>
+      <c r="C94" s="9">
+        <v>61.7</v>
+      </c>
+      <c r="D94" s="9">
+        <v>580.75</v>
+      </c>
+      <c r="E94" s="9">
+        <v>761.43</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="B95" s="13">
-        <v>54.54</v>
-      </c>
-      <c r="C95" s="9">
-        <v>98.11</v>
-      </c>
-      <c r="D95" s="9">
-        <v>772.99</v>
-      </c>
-      <c r="E95" s="9">
-        <v>836.27</v>
+        <v>20.63</v>
+      </c>
+      <c r="C95" s="8">
+        <v>31.43</v>
+      </c>
+      <c r="D95" s="8">
+        <v>430.72</v>
+      </c>
+      <c r="E95" s="8">
+        <v>522</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>190</v>
+        <v>118</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="B96" s="5">
-        <v>218.97</v>
+        <v>20.34</v>
       </c>
       <c r="C96" s="8">
-        <v>184.14</v>
+        <v>18.3</v>
       </c>
       <c r="D96" s="8">
-        <v>12984.88</v>
+        <v>250.34</v>
       </c>
       <c r="E96" s="8">
-        <v>863.87</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>192</v>
+        <v>143.16</v>
+      </c>
+      <c r="F96" s="15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B97" s="13">
-        <v>53.49</v>
-      </c>
-      <c r="C97" s="8">
-        <v>98.77</v>
-      </c>
-      <c r="D97" s="8">
-        <v>712.65</v>
-      </c>
-      <c r="E97" s="8">
-        <v>864.06</v>
-      </c>
-      <c r="F97" s="10" t="s">
-        <v>194</v>
+        <v>10</v>
+      </c>
+      <c r="B97" s="5">
+        <v>20.22</v>
+      </c>
+      <c r="C97" s="11">
+        <v>17.82</v>
+      </c>
+      <c r="D97" s="11">
+        <v>199.61</v>
+      </c>
+      <c r="E97" s="12">
+        <v>93.77</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="B98" s="13">
-        <v>72.97</v>
+        <v>20.02</v>
       </c>
       <c r="C98" s="9">
-        <v>120.88</v>
-      </c>
-      <c r="D98" s="8">
-        <v>2283.4499999999998</v>
+        <v>41.83</v>
+      </c>
+      <c r="D98" s="9">
+        <v>289.02999999999997</v>
       </c>
       <c r="E98" s="9">
-        <v>882.79</v>
-      </c>
-      <c r="F98" s="27" t="s">
-        <v>196</v>
+        <v>369.92</v>
+      </c>
+      <c r="F98" s="23" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B99" s="5">
-        <v>84.26</v>
+        <v>149</v>
+      </c>
+      <c r="B99" s="13">
+        <v>19.3</v>
       </c>
       <c r="C99" s="8">
-        <v>46.06</v>
+        <v>33.35</v>
       </c>
       <c r="D99" s="8">
-        <v>589.91</v>
+        <v>302.08</v>
       </c>
       <c r="E99" s="8">
-        <v>883.23</v>
+        <v>650.16999999999996</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B100" s="13">
-        <v>62</v>
-      </c>
-      <c r="C100" s="9">
-        <v>74.739999999999995</v>
-      </c>
-      <c r="D100" s="9">
-        <v>459.64</v>
-      </c>
-      <c r="E100" s="9">
-        <v>889.42</v>
-      </c>
-      <c r="F100" s="10" t="s">
-        <v>200</v>
+        <v>6</v>
+      </c>
+      <c r="B100" s="5">
+        <v>19.09</v>
+      </c>
+      <c r="C100" s="6">
+        <v>62.19</v>
+      </c>
+      <c r="D100" s="6">
+        <v>289.77</v>
+      </c>
+      <c r="E100" s="6">
+        <v>8.07</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="B101" s="13">
-        <v>45.08</v>
-      </c>
-      <c r="C101" s="8">
-        <v>54.15</v>
-      </c>
-      <c r="D101" s="8">
-        <v>517.1</v>
-      </c>
-      <c r="E101" s="8">
-        <v>920.13</v>
+        <v>17.850000000000001</v>
+      </c>
+      <c r="C101" s="9">
+        <v>20.14</v>
+      </c>
+      <c r="D101" s="9">
+        <v>377.5</v>
+      </c>
+      <c r="E101" s="9">
+        <v>385.7</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>202</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>203</v>
+        <v>151</v>
       </c>
       <c r="B102" s="13">
-        <v>117.28</v>
+        <v>17.63</v>
       </c>
       <c r="C102" s="9">
-        <v>94.05</v>
+        <v>24.37</v>
       </c>
       <c r="D102" s="9">
-        <v>701.78</v>
+        <v>279.64999999999998</v>
       </c>
       <c r="E102" s="9">
-        <v>932.42</v>
+        <v>660.95</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B103" s="13">
-        <v>53.87</v>
-      </c>
-      <c r="C103" s="8">
-        <v>81.349999999999994</v>
-      </c>
-      <c r="D103" s="8">
-        <v>1066.82</v>
-      </c>
-      <c r="E103" s="8">
-        <v>943.66</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>205</v>
+      <c r="A103" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" s="19">
+        <v>15.54</v>
+      </c>
+      <c r="C103" s="24">
+        <v>30.48</v>
+      </c>
+      <c r="D103" s="24">
+        <v>210.44</v>
+      </c>
+      <c r="E103" s="24">
+        <v>501.47</v>
+      </c>
+      <c r="F103" s="21" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>206</v>
+        <v>46</v>
       </c>
       <c r="B104" s="5">
-        <v>38.21</v>
+        <v>15.42</v>
       </c>
       <c r="C104" s="8">
-        <v>75.91</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="D104" s="8">
-        <v>168.21</v>
+        <v>140.52000000000001</v>
       </c>
       <c r="E104" s="8">
-        <v>944.6</v>
+        <v>257.66000000000003</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>207</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B105" s="5">
-        <v>35.76</v>
-      </c>
-      <c r="C105" s="8">
-        <v>39.51</v>
-      </c>
-      <c r="D105" s="8">
-        <v>937.47</v>
-      </c>
-      <c r="E105" s="8">
-        <v>950.79</v>
+        <v>54</v>
+      </c>
+      <c r="B105" s="13">
+        <v>14.91</v>
+      </c>
+      <c r="C105" s="9">
+        <v>30.26</v>
+      </c>
+      <c r="D105" s="9">
+        <v>171.43</v>
+      </c>
+      <c r="E105" s="9">
+        <v>276.61</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>209</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>210</v>
+        <v>24</v>
       </c>
       <c r="B106" s="13">
-        <v>33.56</v>
+        <v>14.9</v>
       </c>
       <c r="C106" s="9">
-        <v>37.94</v>
+        <v>15.97</v>
       </c>
       <c r="D106" s="9">
-        <v>324.52999999999997</v>
+        <v>435.99</v>
       </c>
       <c r="E106" s="9">
-        <v>953.2</v>
+        <v>153.34</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>211</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>212</v>
+        <v>62</v>
       </c>
       <c r="B107" s="13">
-        <v>58.42</v>
+        <v>14.56</v>
       </c>
       <c r="C107" s="8">
-        <v>101.52</v>
+        <v>25.3</v>
       </c>
       <c r="D107" s="8">
-        <v>993.59</v>
-      </c>
-      <c r="E107" s="13">
-        <v>958</v>
+        <v>136.34</v>
+      </c>
+      <c r="E107" s="8">
+        <v>325.02999999999997</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>213</v>
+        <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>214</v>
+        <v>44</v>
       </c>
       <c r="B108" s="13">
-        <v>1611.99</v>
+        <v>13.96</v>
       </c>
       <c r="C108" s="9">
-        <v>-913.39</v>
-      </c>
-      <c r="D108" s="8">
-        <v>19301.03</v>
+        <v>12.3</v>
+      </c>
+      <c r="D108" s="9">
+        <v>315.57</v>
       </c>
       <c r="E108" s="9">
-        <v>984.9</v>
-      </c>
-      <c r="F108" s="10" t="s">
-        <v>215</v>
+        <v>255.14</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="B109" s="13">
-        <v>113.88</v>
-      </c>
-      <c r="C109" s="9">
-        <v>234.51</v>
-      </c>
-      <c r="D109" s="8">
-        <v>6191.29</v>
+        <v>9.73</v>
+      </c>
+      <c r="C109" s="14">
+        <v>6.56</v>
+      </c>
+      <c r="D109" s="13">
+        <v>197.74</v>
       </c>
       <c r="E109" s="9">
-        <v>997.7</v>
+        <v>97.58</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>217</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F109">
+    <sortCondition descending="1" ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>